--- a/PABMI/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Baja de un Bien Mueble 1.xlsx
+++ b/PABMI/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Baja de un Bien Mueble 1.xlsx
@@ -22,7 +22,7 @@
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="139">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -525,6 +525,15 @@
   </si>
   <si>
     <t>Permite redactar el  testigos  de la baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendiente del seguimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regresar la solicitud con  Comentarios </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-2139</t>
   </si>
 </sst>
 </file>
@@ -847,7 +856,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -951,6 +960,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -958,10 +970,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1040,7 +1049,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1933,7 +1941,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1967,9 +1974,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2047,6 +2052,60 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="25000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2215,7 +2274,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2347,7 +2405,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2772,7 +2829,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7368,7 +7424,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7417,7 +7473,7 @@
     <dataField name="Cuenta de Estatus de Prueba" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
@@ -7425,12 +7481,48 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="4">
     <chartFormat chart="0" format="52" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -7797,11 +7889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="7" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8675,11 +8767,27 @@
       <c r="G29" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="20"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="1"/>
+      <c r="H29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45280</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -9242,9 +9350,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="J29" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">

--- a/PABMI/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Baja de un Bien Mueble 1.xlsx
+++ b/PABMI/13 MATRIZ DE PRUEBAS/Matriz de Pruebas Baja de un Bien Mueble 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositorio\All-documents\PABMI\13 MATRIZ DE PRUEBAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PABMI\13 MATRIZ DE PRUEBAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="139">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -909,6 +909,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,9 +961,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1074,7 +1074,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1964,7 +1964,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-MX"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -2303,7 +2303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2340,7 +2340,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2430,7 +2430,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2742,7 +2742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273448"/>
@@ -2812,7 +2812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="758273056"/>
@@ -2854,7 +2854,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2884,7 +2884,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2974,7 +2974,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3735,7 +3735,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099832"/>
@@ -3805,7 +3805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="665099440"/>
@@ -3847,7 +3847,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3877,7 +3877,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7360,71 +7360,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7540,8 +7476,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -7631,6 +7567,70 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7890,10 +7890,10 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7914,94 +7914,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -8430,6 +8430,9 @@
       </c>
       <c r="F18" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -8773,7 +8776,7 @@
       <c r="I29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="26" t="s">
         <v>138</v>
       </c>
       <c r="K29" t="s">
